--- a/Room Examples/50 Seat Flexible Classroom/FSR_Demo_BOM.xlsx
+++ b/Room Examples/50 Seat Flexible Classroom/FSR_Demo_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/jeff_wong_ubc_ca/Documents/Documents/Zoom/LSR Lite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcwong1\OneDrive - UBC\Documents\Zoom\LSR Lite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{BEF3B052-62B0-4811-AF14-108FAEAD6EF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4A7D18D1-C97F-4DD9-A12E-9BE36E31E2BE}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{BEF3B052-62B0-4811-AF14-108FAEAD6EF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0E6D3E87-4DE9-4658-A914-AFE6990CDE5F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12228" xr2:uid="{3D6F06F6-EDB1-4524-BF3C-9867F4B75659}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>Total with Core</t>
   </si>
   <si>
-    <t>Add 2 Wireless Mics</t>
-  </si>
-  <si>
     <t>Between ULX or MXW? Price estimated from internet</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>HDMI DA Video Distribution for Main, Confidence, reuse existing CTO</t>
+  </si>
+  <si>
+    <t>Add 2 Wireless Mics if not reusing existing</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403F8CD3-4F13-4C19-AC07-AF79438DCAB1}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -788,7 +788,7 @@
         <v>1200</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
         <v>5200</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>1620</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1129,10 +1129,10 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
         <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -1145,7 +1145,7 @@
         <v>250</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
@@ -1218,10 +1218,10 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
         <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
@@ -1372,7 +1372,7 @@
         <v>8365</v>
       </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
@@ -1508,7 +1508,7 @@
         <v>4180</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -1555,11 +1555,11 @@
         <v>20</v>
       </c>
       <c r="G44" s="4">
-        <v>1500</v>
+        <v>929</v>
       </c>
       <c r="H44">
         <f>(B44*G44)</f>
-        <v>1500</v>
+        <v>929</v>
       </c>
       <c r="I44" t="s">
         <v>61</v>
@@ -1581,7 +1581,7 @@
       <c r="G47" s="4"/>
       <c r="H47">
         <f>SUM(H42:H44)</f>
-        <v>6415</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
     <row r="50" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H50">
         <f>H29+H47</f>
-        <v>27451</v>
+        <v>26880</v>
       </c>
     </row>
   </sheetData>
@@ -1615,14 +1615,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1e34346d-8268-4be4-b92d-b7d1f2016c7f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D0D5C38E5DC27478E9D13F6DE0CA1C5" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bde15e8843cf7d75b368551f7fa93238">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2d6037a4-d236-431d-a6c8-2dd9eb177faa" xmlns:ns4="1e34346d-8268-4be4-b92d-b7d1f2016c7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37948ff0a149bf534c368068a58c8722" ns3:_="" ns4:_="">
     <xsd:import namespace="2d6037a4-d236-431d-a6c8-2dd9eb177faa"/>
@@ -1857,6 +1849,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1e34346d-8268-4be4-b92d-b7d1f2016c7f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E94C6185-3CAD-4C13-99B7-69EB6FC59FE5}">
   <ds:schemaRefs>
@@ -1866,23 +1866,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07491D6-B4E3-4DF0-8321-D9007C6892AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e34346d-8268-4be4-b92d-b7d1f2016c7f"/>
-    <ds:schemaRef ds:uri="2d6037a4-d236-431d-a6c8-2dd9eb177faa"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A76F53D7-EE39-4ADD-889F-97F72A57F141}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1899,4 +1882,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07491D6-B4E3-4DF0-8321-D9007C6892AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2d6037a4-d236-431d-a6c8-2dd9eb177faa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e34346d-8268-4be4-b92d-b7d1f2016c7f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>